--- a/GA.xlsx
+++ b/GA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddha\Desktop\calendar_proble_solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEFBE99-7DD4-421F-BB93-BEB378D4ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA406847-6CDF-40DF-84A5-C3D83486EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="42">
   <si>
     <t>id_niveau</t>
   </si>
@@ -109,6 +109,48 @@
   </si>
   <si>
     <t>nombre_etudiants</t>
+  </si>
+  <si>
+    <t>3èmeAnnée</t>
+  </si>
+  <si>
+    <t>analyse 2</t>
+  </si>
+  <si>
+    <t>GMI</t>
+  </si>
+  <si>
+    <t>GMA</t>
+  </si>
+  <si>
+    <t>algebre1</t>
+  </si>
+  <si>
+    <t>4èmeAnnée</t>
+  </si>
+  <si>
+    <t>algebre2</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>chimie1</t>
+  </si>
+  <si>
+    <t>chimie2</t>
+  </si>
+  <si>
+    <t>5èmeAnnée</t>
+  </si>
+  <si>
+    <t>5émeAnnée</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>base de donnees</t>
   </si>
 </sst>
 </file>
@@ -432,15 +474,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1249,6 +1290,636 @@
         <v>120</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
